--- a/Documentation/SCRUM/TimeLog_SameerKashif.xlsx
+++ b/Documentation/SCRUM/TimeLog_SameerKashif.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sameer\Documents\GitHub\CTS5_AudienceResponse\Documentation\SCRUM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18C16E0-058E-40A6-8A83-C2030E733924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="15180" yWindow="2115" windowWidth="12750" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -55,38 +77,34 @@
   <si>
     <t>Worked on documentation for for Elaboration phase. Created Domain Model Diagram. Attended team meeting. Watched HTML CSS videos</t>
   </si>
+  <si>
+    <t>2Meetings. Prepared doumentations for submission</t>
+  </si>
+  <si>
+    <t>JaveScripit UI POST and GET. Meeting with frontend.</t>
+  </si>
+  <si>
+    <t>Meeting with Frontend (updated by Amer ). Contact Us page requirements</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -197,69 +215,49 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -270,25 +268,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffe2eeda"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFE2EEDA"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office-Design">
       <a:dk1>
@@ -490,7 +548,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -509,7 +567,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -539,7 +597,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -565,7 +623,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -591,7 +649,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -617,7 +675,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -643,7 +701,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -669,7 +727,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -695,7 +753,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -721,7 +779,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,7 +805,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,9 +818,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -779,7 +843,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -798,7 +862,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -824,7 +888,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,7 +914,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,7 +940,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,7 +966,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,7 +992,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,7 +1018,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,7 +1044,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,7 +1070,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,7 +1096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1045,9 +1109,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1061,7 +1131,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1080,7 +1150,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,7 +1180,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,7 +1206,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1232,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1258,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,7 +1284,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,7 +1310,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,7 +1336,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,7 +1362,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,7 +1388,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,36 +1401,45 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="4" width="11.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="151.352" style="1" customWidth="1"/>
-    <col min="7" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="2" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="151.375" style="1" customWidth="1"/>
+    <col min="7" max="256" width="10.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
@@ -1368,7 +1447,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1376,27 +1455,27 @@
       <c r="E2" s="5"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="4"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" t="s" s="8">
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="4"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" t="s" s="8">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1404,27 +1483,27 @@
       <c r="E5" s="7"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" ht="31" customHeight="1">
-      <c r="A6" t="s" s="13">
+    <row r="6" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="12">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s" s="12">
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s" s="14">
+      <c r="E6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s" s="14">
+      <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1">
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>1</v>
       </c>
@@ -1435,17 +1514,17 @@
         <v>44102</v>
       </c>
       <c r="D7" s="16">
-        <f>C7+6</f>
+        <f t="shared" ref="D7:D22" si="0">C7+6</f>
         <v>44108</v>
       </c>
       <c r="E7" s="17">
         <v>0</v>
       </c>
-      <c r="F7" t="s" s="18">
+      <c r="F7" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1">
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>2</v>
       </c>
@@ -1453,21 +1532,21 @@
         <v>41</v>
       </c>
       <c r="C8" s="16">
-        <f>C7+7</f>
+        <f t="shared" ref="C8:C22" si="1">C7+7</f>
         <v>44109</v>
       </c>
       <c r="D8" s="16">
-        <f>C8+6</f>
+        <f t="shared" si="0"/>
         <v>44115</v>
       </c>
       <c r="E8" s="17">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="18">
+      <c r="F8" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1">
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>3</v>
       </c>
@@ -1475,21 +1554,21 @@
         <v>42</v>
       </c>
       <c r="C9" s="16">
-        <f>C8+7</f>
+        <f t="shared" si="1"/>
         <v>44116</v>
       </c>
       <c r="D9" s="16">
-        <f>C9+6</f>
+        <f t="shared" si="0"/>
         <v>44122</v>
       </c>
       <c r="E9" s="17">
         <v>5</v>
       </c>
-      <c r="F9" t="s" s="18">
+      <c r="F9" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="30" customHeight="1">
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>4</v>
       </c>
@@ -1497,21 +1576,21 @@
         <v>43</v>
       </c>
       <c r="C10" s="16">
-        <f>C9+7</f>
+        <f t="shared" si="1"/>
         <v>44123</v>
       </c>
       <c r="D10" s="16">
-        <f>C10+6</f>
+        <f t="shared" si="0"/>
         <v>44129</v>
       </c>
       <c r="E10" s="17">
         <v>5</v>
       </c>
-      <c r="F10" t="s" s="18">
+      <c r="F10" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="30" customHeight="1">
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>5</v>
       </c>
@@ -1519,17 +1598,21 @@
         <v>44</v>
       </c>
       <c r="C11" s="16">
-        <f>C10+7</f>
+        <f t="shared" si="1"/>
         <v>44130</v>
       </c>
       <c r="D11" s="16">
-        <f>C11+6</f>
+        <f t="shared" si="0"/>
         <v>44136</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" ht="30" customHeight="1">
+      <c r="E11" s="19">
+        <v>12</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>6</v>
       </c>
@@ -1537,17 +1620,21 @@
         <v>45</v>
       </c>
       <c r="C12" s="16">
-        <f>C11+7</f>
+        <f t="shared" si="1"/>
         <v>44137</v>
       </c>
       <c r="D12" s="16">
-        <f>C12+6</f>
+        <f t="shared" si="0"/>
         <v>44143</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" ht="30" customHeight="1">
+      <c r="E12" s="19">
+        <v>14</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>7</v>
       </c>
@@ -1555,17 +1642,21 @@
         <v>46</v>
       </c>
       <c r="C13" s="16">
-        <f>C12+7</f>
+        <f t="shared" si="1"/>
         <v>44144</v>
       </c>
       <c r="D13" s="16">
-        <f>C13+6</f>
+        <f t="shared" si="0"/>
         <v>44150</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" ht="30" customHeight="1">
+      <c r="E13" s="19">
+        <v>5</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>8</v>
       </c>
@@ -1573,17 +1664,17 @@
         <v>47</v>
       </c>
       <c r="C14" s="16">
-        <f>C13+7</f>
+        <f t="shared" si="1"/>
         <v>44151</v>
       </c>
       <c r="D14" s="16">
-        <f>C14+6</f>
+        <f t="shared" si="0"/>
         <v>44157</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" ht="30" customHeight="1">
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>9</v>
       </c>
@@ -1591,17 +1682,17 @@
         <v>48</v>
       </c>
       <c r="C15" s="16">
-        <f>C14+7</f>
+        <f t="shared" si="1"/>
         <v>44158</v>
       </c>
       <c r="D15" s="16">
-        <f>C15+6</f>
+        <f t="shared" si="0"/>
         <v>44164</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" ht="30" customHeight="1">
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>10</v>
       </c>
@@ -1609,17 +1700,17 @@
         <v>49</v>
       </c>
       <c r="C16" s="16">
-        <f>C15+7</f>
+        <f t="shared" si="1"/>
         <v>44165</v>
       </c>
       <c r="D16" s="16">
-        <f>C16+6</f>
+        <f t="shared" si="0"/>
         <v>44171</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" ht="30" customHeight="1">
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>11</v>
       </c>
@@ -1627,17 +1718,17 @@
         <v>50</v>
       </c>
       <c r="C17" s="16">
-        <f>C16+7</f>
+        <f t="shared" si="1"/>
         <v>44172</v>
       </c>
       <c r="D17" s="16">
-        <f>C17+6</f>
+        <f t="shared" si="0"/>
         <v>44178</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" ht="30" customHeight="1">
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>12</v>
       </c>
@@ -1645,17 +1736,17 @@
         <v>51</v>
       </c>
       <c r="C18" s="16">
-        <f>C17+7</f>
+        <f t="shared" si="1"/>
         <v>44179</v>
       </c>
       <c r="D18" s="16">
-        <f>C18+6</f>
+        <f t="shared" si="0"/>
         <v>44185</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" ht="30" customHeight="1">
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>13</v>
       </c>
@@ -1663,17 +1754,17 @@
         <v>52</v>
       </c>
       <c r="C19" s="16">
-        <f>C18+7</f>
+        <f t="shared" si="1"/>
         <v>44186</v>
       </c>
       <c r="D19" s="16">
-        <f>C19+6</f>
+        <f t="shared" si="0"/>
         <v>44192</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" ht="30" customHeight="1">
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>14</v>
       </c>
@@ -1681,17 +1772,17 @@
         <v>53</v>
       </c>
       <c r="C20" s="16">
-        <f>C19+7</f>
+        <f t="shared" si="1"/>
         <v>44193</v>
       </c>
       <c r="D20" s="16">
-        <f>C20+6</f>
+        <f t="shared" si="0"/>
         <v>44199</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" ht="30" customHeight="1">
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>15</v>
       </c>
@@ -1699,17 +1790,17 @@
         <v>1</v>
       </c>
       <c r="C21" s="16">
-        <f>C20+7</f>
+        <f t="shared" si="1"/>
         <v>44200</v>
       </c>
       <c r="D21" s="16">
-        <f>C21+6</f>
+        <f t="shared" si="0"/>
         <v>44206</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" ht="30" customHeight="1">
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>16</v>
       </c>
@@ -1717,11 +1808,11 @@
         <v>2</v>
       </c>
       <c r="C22" s="16">
-        <f>C21+7</f>
+        <f t="shared" si="1"/>
         <v>44207</v>
       </c>
       <c r="D22" s="16">
-        <f>C22+6</f>
+        <f t="shared" si="0"/>
         <v>44213</v>
       </c>
       <c r="E22" s="19"/>
@@ -1729,7 +1820,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
